--- a/src/excel/Excel_Sin_Restricciones.xlsx
+++ b/src/excel/Excel_Sin_Restricciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delfi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delfi\Desktop\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FC3D8-6F6E-47AE-89D3-90CE08F0FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC929786-B83D-4935-B878-C8173C22CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="352">
   <si>
     <t>Período de ingreso 2024</t>
   </si>
@@ -1096,6 +1096,18 @@
   </si>
   <si>
     <t>Clara</t>
+  </si>
+  <si>
+    <t>metodo 1</t>
+  </si>
+  <si>
+    <t>metodo 2</t>
+  </si>
+  <si>
+    <t>Preuniversitario 1</t>
+  </si>
+  <si>
+    <t>Preuniversitario 3</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,10 +1683,10 @@
         <v>336</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="K11" s="4">
         <v>60</v>
@@ -1730,10 +1742,10 @@
         <v>346</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="K12" s="4">
         <v>80</v>
